--- a/data/trans_orig/P5709-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P5709-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84491C74-7ACD-4E1D-BE70-8E4AFD43A542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{401DF137-9D0B-4664-8E23-80D8B240CAC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8ED49F6C-CA1A-4797-BA4A-298B84B5C32B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C6535159-F35D-46BD-BF8F-9BA32E457D04}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="666">
   <si>
     <t>Población según la frecuencia de recibir invitaciones para distraerse y salir con otras personas en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>43,16%</t>
   </si>
   <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
   </si>
   <si>
     <t>38,95%</t>
   </si>
   <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
   </si>
   <si>
     <t>40,8%</t>
   </si>
   <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
   </si>
   <si>
     <t>Casi como deseo</t>
@@ -107,28 +107,28 @@
     <t>27,01%</t>
   </si>
   <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
   </si>
   <si>
     <t>23,08%</t>
   </si>
   <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
   </si>
   <si>
     <t>24,81%</t>
   </si>
   <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
   </si>
   <si>
     <t>Ni mucho ni poco</t>
@@ -140,25 +140,25 @@
     <t>18,68%</t>
   </si>
   <si>
-    <t>23,65%</t>
+    <t>23,49%</t>
   </si>
   <si>
     <t>24,25%</t>
   </si>
   <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
   </si>
   <si>
     <t>22,78%</t>
   </si>
   <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
   </si>
   <si>
     <t>Menos de lo que deseo</t>
@@ -167,1891 +167,1876 @@
     <t>6,95%</t>
   </si>
   <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
   </si>
   <si>
     <t>10,82%</t>
   </si>
   <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
   </si>
   <si>
     <t>9,12%</t>
   </si>
   <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>Mucho menos de lo que deseo</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>60,83%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>63,1%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>60,21%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>61,37%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>65,31%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>63,21%</t>
+  </si>
+  <si>
+    <t>60,03%</t>
+  </si>
+  <si>
+    <t>56,77%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
     <t>7,96%</t>
   </si>
   <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>51,28%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de recibir invitaciones para distraerse y salir con otras personas en 2012 (Tasa respuesta: 99,69%)</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>51,73%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
     <t>10,37%</t>
   </si>
   <si>
-    <t>Mucho menos de lo que deseo</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>68,63%</t>
+  </si>
+  <si>
+    <t>63,64%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>67,39%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>54,77%</t>
+  </si>
+  <si>
+    <t>58,29%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>54,34%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de recibir invitaciones para distraerse y salir con otras personas en 2015 (Tasa respuesta: 99,73%)</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
+  </si>
+  <si>
+    <t>45,34%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>58,48%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>58,75%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>46,86%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>45,46%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de recibir invitaciones para distraerse y salir con otras personas en 2023 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>54,72%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>58,66%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>53,22%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>65,32%</t>
+  </si>
+  <si>
+    <t>71,56%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>62,2%</t>
+  </si>
+  <si>
+    <t>67,24%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
   </si>
   <si>
     <t>2,06%</t>
   </si>
   <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>52,61%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>54,22%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
   </si>
   <si>
     <t>1,9%</t>
   </si>
   <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>63,46%</t>
-  </si>
-  <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>53,28%</t>
-  </si>
-  <si>
-    <t>58,1%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>56,74%</t>
-  </si>
-  <si>
-    <t>60,0%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>61,37%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>65,26%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>63,16%</t>
-  </si>
-  <si>
-    <t>60,03%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>63,29%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>51,21%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de recibir invitaciones para distraerse y salir con otras personas en 2012 (Tasa respuesta: 99,69%)</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>56,22%</t>
-  </si>
-  <si>
-    <t>60,86%</t>
-  </si>
-  <si>
-    <t>54,26%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>56,68%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>59,12%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>63,64%</t>
-  </si>
-  <si>
-    <t>67,88%</t>
-  </si>
-  <si>
-    <t>64,01%</t>
-  </si>
-  <si>
-    <t>60,62%</t>
-  </si>
-  <si>
-    <t>67,43%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>56,67%</t>
-  </si>
-  <si>
-    <t>54,87%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>54,34%</t>
-  </si>
-  <si>
-    <t>53,11%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de recibir invitaciones para distraerse y salir con otras personas en 2015 (Tasa respuesta: 99,73%)</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>55,75%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>46,63%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>46,86%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>47,84%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de recibir invitaciones para distraerse y salir con otras personas en 2023 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>54,72%</t>
-  </si>
-  <si>
-    <t>52,04%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>47,49%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
+    <t>1,65%</t>
   </si>
   <si>
     <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
-  </si>
-  <si>
-    <t>65,04%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>62,26%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
-  </si>
-  <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>52,61%</t>
-  </si>
-  <si>
-    <t>49,77%</t>
-  </si>
-  <si>
-    <t>54,43%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
   </si>
 </sst>
 </file>
@@ -2463,7 +2448,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2C7A6EC-7F70-475E-A085-DD6AB04D47C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7994170C-5CE3-4E6D-85F2-7DD1868C0E1A}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3051,10 +3036,10 @@
         <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>67</v>
@@ -3063,13 +3048,13 @@
         <v>73846</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>112</v>
@@ -3078,13 +3063,13 @@
         <v>122031</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3099,13 +3084,13 @@
         <v>6759</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>10</v>
@@ -3114,13 +3099,13 @@
         <v>11432</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>16</v>
@@ -3129,13 +3114,13 @@
         <v>18190</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3191,7 +3176,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3203,13 +3188,13 @@
         <v>337740</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>266</v>
@@ -3218,13 +3203,13 @@
         <v>278632</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>591</v>
@@ -3233,13 +3218,13 @@
         <v>616372</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3254,13 +3239,13 @@
         <v>129978</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>117</v>
@@ -3269,13 +3254,13 @@
         <v>123897</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>239</v>
@@ -3284,10 +3269,10 @@
         <v>253875</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>124</v>
@@ -3389,10 +3374,10 @@
         <v>140</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>57</v>
+        <v>141</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3407,13 +3392,13 @@
         <v>1753</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -3422,13 +3407,13 @@
         <v>1007</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>142</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -3437,13 +3422,13 @@
         <v>2761</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3511,13 +3496,13 @@
         <v>1813122</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>1656</v>
@@ -3526,13 +3511,13 @@
         <v>1676085</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>3431</v>
@@ -3541,13 +3526,13 @@
         <v>3489208</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3562,13 +3547,13 @@
         <v>821158</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H23" s="7">
         <v>787</v>
@@ -3577,28 +3562,28 @@
         <v>804829</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M23" s="7">
         <v>1593</v>
       </c>
       <c r="N23" s="7">
-        <v>1625987</v>
+        <v>1625986</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3613,13 +3598,13 @@
         <v>477289</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H24" s="7">
         <v>584</v>
@@ -3628,28 +3613,28 @@
         <v>608605</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M24" s="7">
         <v>1059</v>
       </c>
       <c r="N24" s="7">
-        <v>1085895</v>
+        <v>1085894</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3664,13 +3649,13 @@
         <v>134872</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>141</v>
+        <v>180</v>
       </c>
       <c r="H25" s="7">
         <v>222</v>
@@ -3679,13 +3664,13 @@
         <v>237895</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="M25" s="7">
         <v>352</v>
@@ -3694,13 +3679,13 @@
         <v>372767</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3715,13 +3700,13 @@
         <v>29018</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="H26" s="7">
         <v>47</v>
@@ -3730,13 +3715,13 @@
         <v>50631</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>135</v>
+        <v>190</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M26" s="7">
         <v>74</v>
@@ -3745,13 +3730,13 @@
         <v>79649</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3793,7 +3778,7 @@
         <v>6509</v>
       </c>
       <c r="N27" s="7">
-        <v>6653506</v>
+        <v>6653505</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -3807,7 +3792,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -3826,7 +3811,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA9DB83-8754-496A-85D1-E391E3E8892F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7F61245-C67D-4AF2-A31F-B77CD5A1CBF9}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3843,7 +3828,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3950,13 +3935,13 @@
         <v>473369</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H4" s="7">
         <v>563</v>
@@ -3965,13 +3950,13 @@
         <v>603410</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="M4" s="7">
         <v>1010</v>
@@ -3980,13 +3965,13 @@
         <v>1076779</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4001,13 +3986,13 @@
         <v>264706</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H5" s="7">
         <v>343</v>
@@ -4016,13 +4001,13 @@
         <v>366610</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="M5" s="7">
         <v>585</v>
@@ -4031,13 +4016,13 @@
         <v>631316</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>209</v>
+        <v>118</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4052,13 +4037,13 @@
         <v>153624</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="H6" s="7">
         <v>224</v>
@@ -4067,13 +4052,13 @@
         <v>241638</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="M6" s="7">
         <v>367</v>
@@ -4082,13 +4067,13 @@
         <v>395263</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4103,13 +4088,13 @@
         <v>58182</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H7" s="7">
         <v>70</v>
@@ -4118,13 +4103,13 @@
         <v>75242</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="M7" s="7">
         <v>123</v>
@@ -4133,13 +4118,13 @@
         <v>133425</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4154,13 +4139,13 @@
         <v>18786</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="H8" s="7">
         <v>42</v>
@@ -4169,13 +4154,13 @@
         <v>44828</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>137</v>
+        <v>238</v>
       </c>
       <c r="M8" s="7">
         <v>59</v>
@@ -4184,13 +4169,13 @@
         <v>63614</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>90</v>
+        <v>240</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4258,13 +4243,13 @@
         <v>1149812</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="H10" s="7">
         <v>886</v>
@@ -4273,13 +4258,13 @@
         <v>953196</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="M10" s="7">
         <v>1977</v>
@@ -4288,13 +4273,13 @@
         <v>2103007</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>109</v>
+        <v>248</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4309,13 +4294,13 @@
         <v>522702</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>246</v>
+        <v>166</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="H11" s="7">
         <v>459</v>
@@ -4324,13 +4309,13 @@
         <v>484984</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="M11" s="7">
         <v>958</v>
@@ -4339,13 +4324,13 @@
         <v>1007686</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4360,13 +4345,13 @@
         <v>217804</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="H12" s="7">
         <v>189</v>
@@ -4375,13 +4360,13 @@
         <v>204360</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>84</v>
+        <v>264</v>
       </c>
       <c r="M12" s="7">
         <v>386</v>
@@ -4390,13 +4375,13 @@
         <v>422164</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4411,13 +4396,13 @@
         <v>57825</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="H13" s="7">
         <v>78</v>
@@ -4426,13 +4411,13 @@
         <v>88832</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="M13" s="7">
         <v>133</v>
@@ -4441,13 +4426,13 @@
         <v>146657</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>268</v>
+        <v>56</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4462,13 +4447,13 @@
         <v>12545</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="H14" s="7">
         <v>22</v>
@@ -4477,13 +4462,13 @@
         <v>25331</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="M14" s="7">
         <v>33</v>
@@ -4492,13 +4477,13 @@
         <v>37875</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>277</v>
+        <v>100</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4554,7 +4539,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4566,13 +4551,13 @@
         <v>308331</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H16" s="7">
         <v>263</v>
@@ -4581,13 +4566,13 @@
         <v>289814</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>111</v>
+        <v>286</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="M16" s="7">
         <v>546</v>
@@ -4596,13 +4581,13 @@
         <v>598145</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4617,13 +4602,13 @@
         <v>115730</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="H17" s="7">
         <v>103</v>
@@ -4632,13 +4617,13 @@
         <v>117075</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="M17" s="7">
         <v>209</v>
@@ -4647,13 +4632,13 @@
         <v>232804</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4668,13 +4653,13 @@
         <v>36442</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="H18" s="7">
         <v>31</v>
@@ -4683,13 +4668,13 @@
         <v>35838</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>301</v>
+        <v>259</v>
       </c>
       <c r="M18" s="7">
         <v>61</v>
@@ -4698,13 +4683,13 @@
         <v>72280</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4719,13 +4704,13 @@
         <v>12158</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="H19" s="7">
         <v>11</v>
@@ -4734,10 +4719,10 @@
         <v>11524</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>225</v>
@@ -4749,13 +4734,13 @@
         <v>23682</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4770,13 +4755,13 @@
         <v>6424</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -4785,13 +4770,13 @@
         <v>1162</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="M20" s="7">
         <v>6</v>
@@ -4800,13 +4785,13 @@
         <v>7587</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>272</v>
+        <v>143</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4874,13 +4859,13 @@
         <v>1931512</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H22" s="7">
         <v>1712</v>
@@ -4889,13 +4874,13 @@
         <v>1846420</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="M22" s="7">
         <v>3533</v>
@@ -4904,13 +4889,13 @@
         <v>3777932</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4925,13 +4910,13 @@
         <v>903138</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>207</v>
+        <v>297</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H23" s="7">
         <v>905</v>
@@ -4940,13 +4925,13 @@
         <v>968670</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="M23" s="7">
         <v>1752</v>
@@ -4955,13 +4940,13 @@
         <v>1871807</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4979,10 +4964,10 @@
         <v>125</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="H24" s="7">
         <v>444</v>
@@ -4991,13 +4976,13 @@
         <v>481837</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>261</v>
+        <v>340</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="M24" s="7">
         <v>814</v>
@@ -5006,13 +4991,13 @@
         <v>889707</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5027,13 +5012,13 @@
         <v>128165</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>343</v>
+        <v>235</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H25" s="7">
         <v>159</v>
@@ -5042,13 +5027,13 @@
         <v>175599</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>141</v>
+        <v>347</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="M25" s="7">
         <v>279</v>
@@ -5057,13 +5042,13 @@
         <v>303764</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>348</v>
+        <v>270</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5078,13 +5063,13 @@
         <v>37755</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="H26" s="7">
         <v>65</v>
@@ -5093,13 +5078,13 @@
         <v>71321</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>355</v>
+        <v>141</v>
       </c>
       <c r="M26" s="7">
         <v>98</v>
@@ -5111,7 +5096,7 @@
         <v>356</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>186</v>
+        <v>52</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>357</v>
@@ -5170,7 +5155,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -5189,7 +5174,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE712CE5-68D0-4536-A3C2-0C80F4505712}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AA6D3EB-8659-4303-BE45-F5848D2345A8}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5382,10 +5367,10 @@
         <v>371</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>36</v>
+        <v>372</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M5" s="7">
         <v>512</v>
@@ -5394,13 +5379,13 @@
         <v>536083</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5415,13 +5400,13 @@
         <v>128100</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H6" s="7">
         <v>171</v>
@@ -5430,13 +5415,13 @@
         <v>196350</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M6" s="7">
         <v>296</v>
@@ -5445,13 +5430,13 @@
         <v>324449</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>171</v>
+        <v>384</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5466,13 +5451,13 @@
         <v>50225</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="H7" s="7">
         <v>67</v>
@@ -5481,13 +5466,13 @@
         <v>77450</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>304</v>
+        <v>391</v>
       </c>
       <c r="M7" s="7">
         <v>121</v>
@@ -5496,13 +5481,13 @@
         <v>127674</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>390</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5517,13 +5502,13 @@
         <v>11309</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>135</v>
+        <v>190</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>100</v>
+        <v>394</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="H8" s="7">
         <v>24</v>
@@ -5532,13 +5517,13 @@
         <v>28557</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="M8" s="7">
         <v>36</v>
@@ -5547,13 +5532,13 @@
         <v>39866</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5618,16 +5603,16 @@
         <v>897</v>
       </c>
       <c r="D10" s="7">
-        <v>951727</v>
+        <v>951728</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="H10" s="7">
         <v>924</v>
@@ -5636,13 +5621,13 @@
         <v>943182</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="M10" s="7">
         <v>1821</v>
@@ -5651,13 +5636,13 @@
         <v>1894910</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5669,16 +5654,16 @@
         <v>678</v>
       </c>
       <c r="D11" s="7">
-        <v>718325</v>
+        <v>718326</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="H11" s="7">
         <v>628</v>
@@ -5687,13 +5672,13 @@
         <v>662863</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="M11" s="7">
         <v>1306</v>
@@ -5702,13 +5687,13 @@
         <v>1381188</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5723,13 +5708,13 @@
         <v>304902</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="H12" s="7">
         <v>277</v>
@@ -5738,13 +5723,13 @@
         <v>298540</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="M12" s="7">
         <v>563</v>
@@ -5753,13 +5738,13 @@
         <v>603442</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5771,16 +5756,16 @@
         <v>65</v>
       </c>
       <c r="D13" s="7">
-        <v>72046</v>
+        <v>72047</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>347</v>
+        <v>431</v>
       </c>
       <c r="H13" s="7">
         <v>62</v>
@@ -5789,13 +5774,13 @@
         <v>65199</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>392</v>
+        <v>432</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>428</v>
+        <v>348</v>
       </c>
       <c r="M13" s="7">
         <v>127</v>
@@ -5804,13 +5789,13 @@
         <v>137246</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>429</v>
+        <v>317</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5825,13 +5810,13 @@
         <v>23733</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="H14" s="7">
         <v>11</v>
@@ -5840,13 +5825,13 @@
         <v>12000</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>272</v>
+        <v>143</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="M14" s="7">
         <v>32</v>
@@ -5855,13 +5840,13 @@
         <v>35733</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>437</v>
+        <v>105</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>438</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>439</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5873,7 +5858,7 @@
         <v>1947</v>
       </c>
       <c r="D15" s="7">
-        <v>2070734</v>
+        <v>2070735</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -5917,7 +5902,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5950,7 +5935,7 @@
         <v>444</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>445</v>
+        <v>244</v>
       </c>
       <c r="M16" s="7">
         <v>577</v>
@@ -5959,13 +5944,13 @@
         <v>609521</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5980,13 +5965,13 @@
         <v>179768</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>450</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>451</v>
       </c>
       <c r="H17" s="7">
         <v>162</v>
@@ -5995,28 +5980,28 @@
         <v>173390</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>453</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>454</v>
       </c>
       <c r="M17" s="7">
         <v>328</v>
       </c>
       <c r="N17" s="7">
-        <v>353157</v>
+        <v>353158</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>456</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6031,13 +6016,13 @@
         <v>65457</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>459</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>460</v>
       </c>
       <c r="H18" s="7">
         <v>49</v>
@@ -6046,13 +6031,13 @@
         <v>48717</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>462</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>463</v>
       </c>
       <c r="M18" s="7">
         <v>105</v>
@@ -6061,13 +6046,13 @@
         <v>114174</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>465</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6082,13 +6067,13 @@
         <v>2822</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>467</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>468</v>
       </c>
       <c r="H19" s="7">
         <v>10</v>
@@ -6097,13 +6082,13 @@
         <v>10686</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>394</v>
+        <v>468</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>469</v>
+        <v>194</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>470</v>
+        <v>179</v>
       </c>
       <c r="M19" s="7">
         <v>12</v>
@@ -6112,13 +6097,13 @@
         <v>13508</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>271</v>
+        <v>470</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>472</v>
+        <v>279</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6133,13 +6118,13 @@
         <v>1036</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -6148,13 +6133,13 @@
         <v>1854</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>474</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>475</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -6163,13 +6148,13 @@
         <v>2890</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6211,7 +6196,7 @@
         <v>1024</v>
       </c>
       <c r="N21" s="7">
-        <v>1093250</v>
+        <v>1093251</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -6237,13 +6222,13 @@
         <v>1571807</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>478</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>479</v>
       </c>
       <c r="H22" s="7">
         <v>1584</v>
@@ -6252,13 +6237,13 @@
         <v>1649337</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>480</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>481</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>482</v>
       </c>
       <c r="M22" s="7">
         <v>3083</v>
@@ -6267,13 +6252,13 @@
         <v>3221145</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>484</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6288,13 +6273,13 @@
         <v>1139665</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>487</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>488</v>
       </c>
       <c r="H23" s="7">
         <v>1058</v>
@@ -6303,13 +6288,13 @@
         <v>1130763</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>489</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>490</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>491</v>
       </c>
       <c r="M23" s="7">
         <v>2146</v>
@@ -6318,13 +6303,13 @@
         <v>2270429</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>493</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6339,13 +6324,13 @@
         <v>498459</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>496</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>497</v>
       </c>
       <c r="H24" s="7">
         <v>497</v>
@@ -6354,7 +6339,7 @@
         <v>543606</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>174</v>
+        <v>497</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>498</v>
@@ -6390,13 +6375,13 @@
         <v>125093</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>311</v>
+        <v>503</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>504</v>
+        <v>310</v>
       </c>
       <c r="H25" s="7">
         <v>139</v>
@@ -6411,7 +6396,7 @@
         <v>506</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>507</v>
+        <v>185</v>
       </c>
       <c r="M25" s="7">
         <v>260</v>
@@ -6420,13 +6405,13 @@
         <v>278428</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>56</v>
+        <v>507</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>508</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6441,13 +6426,13 @@
         <v>36078</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>510</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>512</v>
       </c>
       <c r="H26" s="7">
         <v>36</v>
@@ -6456,13 +6441,13 @@
         <v>42411</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>513</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>514</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>515</v>
       </c>
       <c r="M26" s="7">
         <v>70</v>
@@ -6471,13 +6456,13 @@
         <v>78488</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>274</v>
+        <v>515</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6533,7 +6518,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -6552,7 +6537,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC827D66-2940-418E-B6FF-491A33B95638}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C87EFDD2-D585-41B4-95DB-22FCC936EEBE}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6569,7 +6554,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6676,13 +6661,13 @@
         <v>235672</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>518</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>519</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>520</v>
       </c>
       <c r="H4" s="7">
         <v>560</v>
@@ -6691,13 +6676,13 @@
         <v>329350</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>521</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>522</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>523</v>
       </c>
       <c r="M4" s="7">
         <v>854</v>
@@ -6706,13 +6691,13 @@
         <v>565022</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>524</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>525</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6727,13 +6712,13 @@
         <v>142909</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>527</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>528</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>529</v>
       </c>
       <c r="H5" s="7">
         <v>378</v>
@@ -6742,13 +6727,13 @@
         <v>235268</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>531</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>412</v>
       </c>
       <c r="M5" s="7">
         <v>557</v>
@@ -6784,7 +6769,7 @@
         <v>536</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>537</v>
+        <v>380</v>
       </c>
       <c r="H6" s="7">
         <v>280</v>
@@ -6793,13 +6778,13 @@
         <v>152212</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="K6" s="7" t="s">
-        <v>539</v>
-      </c>
       <c r="L6" s="7" t="s">
-        <v>540</v>
+        <v>220</v>
       </c>
       <c r="M6" s="7">
         <v>401</v>
@@ -6808,13 +6793,13 @@
         <v>243091</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>543</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6829,13 +6814,13 @@
         <v>47271</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="H7" s="7">
         <v>133</v>
@@ -6844,13 +6829,13 @@
         <v>74432</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="M7" s="7">
         <v>199</v>
@@ -6859,13 +6844,13 @@
         <v>121703</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6880,13 +6865,13 @@
         <v>19734</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>93</v>
+        <v>549</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="H8" s="7">
         <v>68</v>
@@ -6895,13 +6880,13 @@
         <v>39078</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>554</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>508</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>555</v>
       </c>
       <c r="M8" s="7">
         <v>93</v>
@@ -6910,13 +6895,13 @@
         <v>58812</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>556</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>426</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>557</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6981,16 +6966,16 @@
         <v>993</v>
       </c>
       <c r="D10" s="7">
-        <v>1182578</v>
+        <v>1182577</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>558</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>559</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>560</v>
       </c>
       <c r="H10" s="7">
         <v>1460</v>
@@ -6999,13 +6984,13 @@
         <v>1120598</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>561</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>562</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>563</v>
       </c>
       <c r="M10" s="7">
         <v>2453</v>
@@ -7014,7 +6999,7 @@
         <v>2303176</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>196</v>
+        <v>563</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>564</v>
@@ -7041,7 +7026,7 @@
         <v>567</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>568</v>
+        <v>373</v>
       </c>
       <c r="H11" s="7">
         <v>985</v>
@@ -7050,13 +7035,13 @@
         <v>695001</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>569</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>570</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>571</v>
       </c>
       <c r="M11" s="7">
         <v>1657</v>
@@ -7065,13 +7050,13 @@
         <v>1356601</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>572</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>573</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7086,13 +7071,13 @@
         <v>228489</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>575</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>576</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>577</v>
       </c>
       <c r="H12" s="7">
         <v>313</v>
@@ -7101,13 +7086,13 @@
         <v>218658</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>578</v>
+        <v>260</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="M12" s="7">
         <v>541</v>
@@ -7116,13 +7101,13 @@
         <v>447147</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7137,13 +7122,13 @@
         <v>63217</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="H13" s="7">
         <v>113</v>
@@ -7152,13 +7137,13 @@
         <v>179725</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>138</v>
+        <v>585</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="M13" s="7">
         <v>182</v>
@@ -7167,13 +7152,13 @@
         <v>242942</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>589</v>
+        <v>304</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7188,13 +7173,13 @@
         <v>25371</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>593</v>
+        <v>353</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>594</v>
+        <v>320</v>
       </c>
       <c r="H14" s="7">
         <v>47</v>
@@ -7203,13 +7188,13 @@
         <v>32360</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>596</v>
+        <v>55</v>
       </c>
       <c r="M14" s="7">
         <v>76</v>
@@ -7218,13 +7203,13 @@
         <v>57730</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7236,7 +7221,7 @@
         <v>1991</v>
       </c>
       <c r="D15" s="7">
-        <v>2161254</v>
+        <v>2161253</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -7280,7 +7265,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7292,13 +7277,13 @@
         <v>411002</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>151</v>
+        <v>595</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="H16" s="7">
         <v>657</v>
@@ -7307,13 +7292,13 @@
         <v>487859</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="M16" s="7">
         <v>1059</v>
@@ -7322,13 +7307,13 @@
         <v>898862</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7343,13 +7328,13 @@
         <v>193851</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>607</v>
+        <v>449</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="H17" s="7">
         <v>264</v>
@@ -7358,13 +7343,13 @@
         <v>166553</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="M17" s="7">
         <v>470</v>
@@ -7373,13 +7358,13 @@
         <v>360404</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7394,13 +7379,13 @@
         <v>43450</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="H18" s="7">
         <v>52</v>
@@ -7409,13 +7394,13 @@
         <v>40691</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>345</v>
+        <v>615</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="M18" s="7">
         <v>99</v>
@@ -7424,13 +7409,13 @@
         <v>84141</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7445,13 +7430,13 @@
         <v>19837</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="H19" s="7">
         <v>24</v>
@@ -7460,13 +7445,13 @@
         <v>14699</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>55</v>
+        <v>622</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>597</v>
+        <v>189</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="M19" s="7">
         <v>44</v>
@@ -7475,13 +7460,13 @@
         <v>34536</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>627</v>
+        <v>237</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7496,13 +7481,13 @@
         <v>4143</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>473</v>
+        <v>146</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>191</v>
+        <v>620</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -7511,13 +7496,13 @@
         <v>4083</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>632</v>
+        <v>318</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="M20" s="7">
         <v>12</v>
@@ -7526,13 +7511,13 @@
         <v>8226</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>185</v>
+        <v>628</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>273</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7600,13 +7585,13 @@
         <v>1829252</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>636</v>
+        <v>108</v>
       </c>
       <c r="H22" s="7">
         <v>2677</v>
@@ -7615,13 +7600,13 @@
         <v>1937808</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>563</v>
+        <v>634</v>
       </c>
       <c r="M22" s="7">
         <v>4366</v>
@@ -7630,13 +7615,13 @@
         <v>3767059</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7651,13 +7636,13 @@
         <v>998361</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="H23" s="7">
         <v>1627</v>
@@ -7666,13 +7651,13 @@
         <v>1096822</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>331</v>
+        <v>641</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="M23" s="7">
         <v>2684</v>
@@ -7681,13 +7666,13 @@
         <v>2095183</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7702,13 +7687,13 @@
         <v>362817</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="H24" s="7">
         <v>645</v>
@@ -7717,13 +7702,13 @@
         <v>411562</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>335</v>
+        <v>650</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="M24" s="7">
         <v>1041</v>
@@ -7732,13 +7717,13 @@
         <v>774379</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>657</v>
+        <v>262</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7753,13 +7738,13 @@
         <v>130325</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>658</v>
+        <v>270</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>659</v>
+        <v>53</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>222</v>
+        <v>655</v>
       </c>
       <c r="H25" s="7">
         <v>270</v>
@@ -7768,13 +7753,13 @@
         <v>268856</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="M25" s="7">
         <v>425</v>
@@ -7783,13 +7768,13 @@
         <v>399181</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7804,13 +7789,13 @@
         <v>49247</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>667</v>
+        <v>191</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>318</v>
+        <v>663</v>
       </c>
       <c r="H26" s="7">
         <v>122</v>
@@ -7822,10 +7807,10 @@
         <v>51</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>669</v>
+        <v>57</v>
       </c>
       <c r="M26" s="7">
         <v>181</v>
@@ -7834,13 +7819,13 @@
         <v>124769</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>670</v>
+        <v>437</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>278</v>
+        <v>195</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>596</v>
+        <v>665</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7896,7 +7881,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P5709-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P5709-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{401DF137-9D0B-4664-8E23-80D8B240CAC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{984C59AB-363C-438A-A10B-66736B2853D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C6535159-F35D-46BD-BF8F-9BA32E457D04}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F9778E86-74BE-4439-891E-970C482FE4AE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="677">
   <si>
     <t>Población según la frecuencia de recibir invitaciones para distraerse y salir con otras personas en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>43,16%</t>
   </si>
   <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
   </si>
   <si>
     <t>38,95%</t>
   </si>
   <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
   </si>
   <si>
     <t>40,8%</t>
   </si>
   <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
   </si>
   <si>
     <t>Casi como deseo</t>
@@ -107,28 +107,28 @@
     <t>27,01%</t>
   </si>
   <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
   </si>
   <si>
     <t>23,08%</t>
   </si>
   <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
   </si>
   <si>
     <t>24,81%</t>
   </si>
   <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
   </si>
   <si>
     <t>Ni mucho ni poco</t>
@@ -137,28 +137,28 @@
     <t>20,9%</t>
   </si>
   <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
   </si>
   <si>
     <t>24,25%</t>
   </si>
   <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
   </si>
   <si>
     <t>22,78%</t>
   </si>
   <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
   </si>
   <si>
     <t>Menos de lo que deseo</t>
@@ -167,28 +167,28 @@
     <t>6,95%</t>
   </si>
   <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
   </si>
   <si>
     <t>10,82%</t>
   </si>
   <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
   </si>
   <si>
     <t>9,12%</t>
   </si>
   <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
   </si>
   <si>
     <t>Mucho menos de lo que deseo</t>
@@ -197,1843 +197,1876 @@
     <t>1,99%</t>
   </si>
   <si>
-    <t>1,3%</t>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>60,83%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>61,37%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
+  </si>
+  <si>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>63,13%</t>
+  </si>
+  <si>
+    <t>60,03%</t>
+  </si>
+  <si>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>63,12%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>53,75%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de recibir invitaciones para distraerse y salir con otras personas en 2012 (Tasa respuesta: 99,69%)</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>52,35%</t>
+  </si>
+  <si>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>51,88%</t>
+  </si>
+  <si>
+    <t>56,61%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
+  </si>
+  <si>
+    <t>58,36%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>63,64%</t>
+  </si>
+  <si>
+    <t>58,73%</t>
+  </si>
+  <si>
+    <t>68,49%</t>
+  </si>
+  <si>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>50,39%</t>
+  </si>
+  <si>
+    <t>53,82%</t>
+  </si>
+  <si>
+    <t>54,34%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de recibir invitaciones para distraerse y salir con otras personas en 2016 (Tasa respuesta: 99,73%)</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>46,86%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>48,39%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>58,79%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>52,94%</t>
+  </si>
+  <si>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>52,79%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de recibir invitaciones para distraerse y salir con otras personas en 2023 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>54,72%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>58,66%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>53,22%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>65,32%</t>
+  </si>
+  <si>
+    <t>71,56%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>62,2%</t>
+  </si>
+  <si>
+    <t>67,24%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>52,61%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>54,22%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
   </si>
   <si>
     <t>3,25%</t>
   </si>
   <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>63,1%</t>
-  </si>
-  <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>60,21%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>61,37%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>65,31%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>63,21%</t>
-  </si>
-  <si>
-    <t>60,03%</t>
-  </si>
-  <si>
-    <t>56,77%</t>
-  </si>
-  <si>
-    <t>62,77%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
   </si>
   <si>
     <t>1,13%</t>
   </si>
   <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
   </si>
   <si>
     <t>1,48%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de recibir invitaciones para distraerse y salir con otras personas en 2012 (Tasa respuesta: 99,69%)</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>61,07%</t>
-  </si>
-  <si>
-    <t>54,26%</t>
-  </si>
-  <si>
-    <t>51,73%</t>
-  </si>
-  <si>
-    <t>56,47%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>59,76%</t>
-  </si>
-  <si>
-    <t>68,63%</t>
-  </si>
-  <si>
-    <t>63,64%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>68,29%</t>
-  </si>
-  <si>
-    <t>64,01%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>67,39%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>56,67%</t>
-  </si>
-  <si>
-    <t>54,77%</t>
-  </si>
-  <si>
-    <t>58,29%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>54,34%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de recibir invitaciones para distraerse y salir con otras personas en 2015 (Tasa respuesta: 99,73%)</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>58,48%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>55,75%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>58,75%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>46,63%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>46,86%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>48,63%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>45,46%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de recibir invitaciones para distraerse y salir con otras personas en 2023 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>54,72%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>58,66%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>53,22%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
-  </si>
-  <si>
-    <t>65,32%</t>
-  </si>
-  <si>
-    <t>71,56%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>62,2%</t>
-  </si>
-  <si>
-    <t>67,24%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>52,61%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>54,22%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
   </si>
   <si>
     <t>2,07%</t>
@@ -2448,7 +2481,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7994170C-5CE3-4E6D-85F2-7DD1868C0E1A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F539DB31-A7F6-4A9D-AA3E-C6F2AF6A46D0}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3036,10 +3069,10 @@
         <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>67</v>
@@ -3048,13 +3081,13 @@
         <v>73846</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>112</v>
@@ -3063,13 +3096,13 @@
         <v>122031</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3084,13 +3117,13 @@
         <v>6759</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>10</v>
@@ -3099,13 +3132,13 @@
         <v>11432</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>16</v>
@@ -3114,13 +3147,13 @@
         <v>18190</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3132,7 +3165,7 @@
         <v>1649</v>
       </c>
       <c r="D15" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -3176,7 +3209,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3188,13 +3221,13 @@
         <v>337740</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>266</v>
@@ -3203,13 +3236,13 @@
         <v>278632</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>591</v>
@@ -3218,13 +3251,13 @@
         <v>616372</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3239,13 +3272,13 @@
         <v>129978</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>117</v>
@@ -3254,13 +3287,13 @@
         <v>123897</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>239</v>
@@ -3269,13 +3302,13 @@
         <v>253875</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3290,13 +3323,13 @@
         <v>65855</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H18" s="7">
         <v>48</v>
@@ -3305,13 +3338,13 @@
         <v>51110</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M18" s="7">
         <v>110</v>
@@ -3320,13 +3353,13 @@
         <v>116965</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3341,13 +3374,13 @@
         <v>14998</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H19" s="7">
         <v>20</v>
@@ -3356,13 +3389,13 @@
         <v>21766</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M19" s="7">
         <v>35</v>
@@ -3371,13 +3404,13 @@
         <v>36763</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3392,13 +3425,13 @@
         <v>1753</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -3407,13 +3440,13 @@
         <v>1007</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -3422,13 +3455,13 @@
         <v>2761</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3496,13 +3529,13 @@
         <v>1813122</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>1656</v>
@@ -3511,13 +3544,13 @@
         <v>1676085</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>3431</v>
@@ -3526,13 +3559,13 @@
         <v>3489208</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3547,13 +3580,13 @@
         <v>821158</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H23" s="7">
         <v>787</v>
@@ -3562,28 +3595,28 @@
         <v>804829</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M23" s="7">
         <v>1593</v>
       </c>
       <c r="N23" s="7">
-        <v>1625986</v>
+        <v>1625987</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3598,13 +3631,13 @@
         <v>477289</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H24" s="7">
         <v>584</v>
@@ -3613,28 +3646,28 @@
         <v>608605</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M24" s="7">
         <v>1059</v>
       </c>
       <c r="N24" s="7">
-        <v>1085894</v>
+        <v>1085895</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3649,13 +3682,13 @@
         <v>134872</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H25" s="7">
         <v>222</v>
@@ -3664,13 +3697,13 @@
         <v>237895</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M25" s="7">
         <v>352</v>
@@ -3679,13 +3712,13 @@
         <v>372767</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3700,7 +3733,7 @@
         <v>29018</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>187</v>
+        <v>106</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>188</v>
@@ -3778,7 +3811,7 @@
         <v>6509</v>
       </c>
       <c r="N27" s="7">
-        <v>6653505</v>
+        <v>6653506</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -3811,7 +3844,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7F61245-C67D-4AF2-A31F-B77CD5A1CBF9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9F28FA9-0391-4EDE-9719-C6DF79012AB1}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4016,13 +4049,13 @@
         <v>631316</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>118</v>
+        <v>213</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4037,13 +4070,13 @@
         <v>153624</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H6" s="7">
         <v>224</v>
@@ -4052,13 +4085,13 @@
         <v>241638</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M6" s="7">
         <v>367</v>
@@ -4067,13 +4100,13 @@
         <v>395263</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4088,13 +4121,13 @@
         <v>58182</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H7" s="7">
         <v>70</v>
@@ -4103,13 +4136,13 @@
         <v>75242</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>229</v>
+        <v>182</v>
       </c>
       <c r="M7" s="7">
         <v>123</v>
@@ -4142,10 +4175,10 @@
         <v>233</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="H8" s="7">
         <v>42</v>
@@ -4154,13 +4187,13 @@
         <v>44828</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="M8" s="7">
         <v>59</v>
@@ -4169,13 +4202,13 @@
         <v>63614</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4243,13 +4276,13 @@
         <v>1149812</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="H10" s="7">
         <v>886</v>
@@ -4258,13 +4291,13 @@
         <v>953196</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="M10" s="7">
         <v>1977</v>
@@ -4273,13 +4306,13 @@
         <v>2103007</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4294,13 +4327,13 @@
         <v>522702</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="H11" s="7">
         <v>459</v>
@@ -4309,13 +4342,13 @@
         <v>484984</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="M11" s="7">
         <v>958</v>
@@ -4324,13 +4357,13 @@
         <v>1007686</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4345,13 +4378,13 @@
         <v>217804</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="H12" s="7">
         <v>189</v>
@@ -4360,13 +4393,13 @@
         <v>204360</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="M12" s="7">
         <v>386</v>
@@ -4375,13 +4408,13 @@
         <v>422164</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4396,13 +4429,13 @@
         <v>57825</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="H13" s="7">
         <v>78</v>
@@ -4411,13 +4444,13 @@
         <v>88832</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="M13" s="7">
         <v>133</v>
@@ -4429,10 +4462,10 @@
         <v>56</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>238</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4447,13 +4480,13 @@
         <v>12545</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="H14" s="7">
         <v>22</v>
@@ -4462,10 +4495,10 @@
         <v>25331</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>279</v>
@@ -4480,10 +4513,10 @@
         <v>280</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>100</v>
+        <v>281</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4539,7 +4572,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4674,7 +4707,7 @@
         <v>304</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="M18" s="7">
         <v>61</v>
@@ -4683,13 +4716,13 @@
         <v>72280</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4704,13 +4737,13 @@
         <v>12158</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H19" s="7">
         <v>11</v>
@@ -4719,13 +4752,13 @@
         <v>11524</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>225</v>
+        <v>314</v>
       </c>
       <c r="M19" s="7">
         <v>23</v>
@@ -4734,13 +4767,13 @@
         <v>23682</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4755,13 +4788,13 @@
         <v>6424</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -4770,13 +4803,13 @@
         <v>1162</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="M20" s="7">
         <v>6</v>
@@ -4785,13 +4818,13 @@
         <v>7587</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4859,13 +4892,13 @@
         <v>1931512</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>323</v>
+        <v>248</v>
       </c>
       <c r="H22" s="7">
         <v>1712</v>
@@ -4874,13 +4907,13 @@
         <v>1846420</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="M22" s="7">
         <v>3533</v>
@@ -4889,13 +4922,13 @@
         <v>3777932</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4910,13 +4943,13 @@
         <v>903138</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>297</v>
+        <v>333</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="H23" s="7">
         <v>905</v>
@@ -4928,10 +4961,10 @@
         <v>207</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="M23" s="7">
         <v>1752</v>
@@ -4940,13 +4973,13 @@
         <v>1871807</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4961,13 +4994,13 @@
         <v>407870</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>338</v>
+        <v>82</v>
       </c>
       <c r="H24" s="7">
         <v>444</v>
@@ -4976,13 +5009,13 @@
         <v>481837</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="M24" s="7">
         <v>814</v>
@@ -4991,13 +5024,13 @@
         <v>889707</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5012,13 +5045,13 @@
         <v>128165</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>345</v>
+        <v>91</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>235</v>
+        <v>347</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="H25" s="7">
         <v>159</v>
@@ -5027,13 +5060,13 @@
         <v>175599</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="M25" s="7">
         <v>279</v>
@@ -5042,13 +5075,13 @@
         <v>303764</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>270</v>
+        <v>353</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5063,13 +5096,13 @@
         <v>37755</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="H26" s="7">
         <v>65</v>
@@ -5078,13 +5111,13 @@
         <v>71321</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>141</v>
+        <v>360</v>
       </c>
       <c r="M26" s="7">
         <v>98</v>
@@ -5093,13 +5126,13 @@
         <v>109076</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>52</v>
+        <v>362</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5174,7 +5207,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AA6D3EB-8659-4303-BE45-F5848D2345A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8944DE6-EE4E-453C-925C-2107FAB0A461}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5191,7 +5224,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5298,13 +5331,13 @@
         <v>323142</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>359</v>
+        <v>19</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="H4" s="7">
         <v>358</v>
@@ -5313,13 +5346,13 @@
         <v>393572</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="M4" s="7">
         <v>685</v>
@@ -5328,13 +5361,13 @@
         <v>716714</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5349,13 +5382,13 @@
         <v>241572</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="H5" s="7">
         <v>268</v>
@@ -5364,13 +5397,13 @@
         <v>294511</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="M5" s="7">
         <v>512</v>
@@ -5379,13 +5412,13 @@
         <v>536083</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5400,13 +5433,13 @@
         <v>128100</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="H6" s="7">
         <v>171</v>
@@ -5415,13 +5448,13 @@
         <v>196350</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="M6" s="7">
         <v>296</v>
@@ -5430,13 +5463,13 @@
         <v>324449</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5451,13 +5484,13 @@
         <v>50225</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="H7" s="7">
         <v>67</v>
@@ -5466,13 +5499,13 @@
         <v>77450</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="M7" s="7">
         <v>121</v>
@@ -5481,13 +5514,13 @@
         <v>127674</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5505,10 +5538,10 @@
         <v>190</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="H8" s="7">
         <v>24</v>
@@ -5517,13 +5550,13 @@
         <v>28557</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="M8" s="7">
         <v>36</v>
@@ -5532,13 +5565,13 @@
         <v>39866</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5603,16 +5636,16 @@
         <v>897</v>
       </c>
       <c r="D10" s="7">
-        <v>951728</v>
+        <v>951727</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="H10" s="7">
         <v>924</v>
@@ -5621,13 +5654,13 @@
         <v>943182</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="M10" s="7">
         <v>1821</v>
@@ -5636,13 +5669,13 @@
         <v>1894910</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5654,16 +5687,16 @@
         <v>678</v>
       </c>
       <c r="D11" s="7">
-        <v>718326</v>
+        <v>718325</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="H11" s="7">
         <v>628</v>
@@ -5672,13 +5705,13 @@
         <v>662863</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="M11" s="7">
         <v>1306</v>
@@ -5687,13 +5720,13 @@
         <v>1381188</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5708,13 +5741,13 @@
         <v>304902</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>421</v>
+        <v>82</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="H12" s="7">
         <v>277</v>
@@ -5723,13 +5756,13 @@
         <v>298540</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>423</v>
+        <v>128</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="M12" s="7">
         <v>563</v>
@@ -5738,13 +5771,13 @@
         <v>603442</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5756,16 +5789,16 @@
         <v>65</v>
       </c>
       <c r="D13" s="7">
-        <v>72047</v>
+        <v>72046</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="H13" s="7">
         <v>62</v>
@@ -5774,13 +5807,13 @@
         <v>65199</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>274</v>
+        <v>407</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>348</v>
+        <v>437</v>
       </c>
       <c r="M13" s="7">
         <v>127</v>
@@ -5789,13 +5822,13 @@
         <v>137246</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>317</v>
+        <v>438</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5810,13 +5843,13 @@
         <v>23733</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>435</v>
+        <v>276</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>436</v>
+        <v>151</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="H14" s="7">
         <v>11</v>
@@ -5825,13 +5858,13 @@
         <v>12000</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>438</v>
+        <v>188</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="M14" s="7">
         <v>32</v>
@@ -5840,13 +5873,13 @@
         <v>35733</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>105</v>
+        <v>443</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>438</v>
+        <v>188</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>193</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5858,7 +5891,7 @@
         <v>1947</v>
       </c>
       <c r="D15" s="7">
-        <v>2070735</v>
+        <v>2070734</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -5902,7 +5935,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5914,13 +5947,13 @@
         <v>296938</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="H16" s="7">
         <v>302</v>
@@ -5929,13 +5962,13 @@
         <v>312584</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>244</v>
+        <v>449</v>
       </c>
       <c r="M16" s="7">
         <v>577</v>
@@ -5944,13 +5977,13 @@
         <v>609521</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5965,13 +5998,13 @@
         <v>179768</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="H17" s="7">
         <v>162</v>
@@ -5980,13 +6013,13 @@
         <v>173390</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="M17" s="7">
         <v>328</v>
@@ -5995,13 +6028,13 @@
         <v>353158</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6016,13 +6049,13 @@
         <v>65457</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="H18" s="7">
         <v>49</v>
@@ -6031,13 +6064,13 @@
         <v>48717</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="M18" s="7">
         <v>105</v>
@@ -6046,13 +6079,13 @@
         <v>114174</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>464</v>
+        <v>43</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6067,13 +6100,13 @@
         <v>2822</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="H19" s="7">
         <v>10</v>
@@ -6082,13 +6115,13 @@
         <v>10686</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>194</v>
+        <v>473</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>179</v>
+        <v>474</v>
       </c>
       <c r="M19" s="7">
         <v>12</v>
@@ -6097,13 +6130,13 @@
         <v>13508</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>469</v>
+        <v>103</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>279</v>
+        <v>476</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6118,13 +6151,13 @@
         <v>1036</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -6133,13 +6166,13 @@
         <v>1854</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -6148,13 +6181,13 @@
         <v>2890</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6222,13 +6255,13 @@
         <v>1571807</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="H22" s="7">
         <v>1584</v>
@@ -6237,13 +6270,13 @@
         <v>1649337</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>479</v>
+        <v>366</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="M22" s="7">
         <v>3083</v>
@@ -6252,13 +6285,13 @@
         <v>3221145</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6273,13 +6306,13 @@
         <v>1139665</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="H23" s="7">
         <v>1058</v>
@@ -6288,13 +6321,13 @@
         <v>1130763</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="M23" s="7">
         <v>2146</v>
@@ -6303,13 +6336,13 @@
         <v>2270429</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>491</v>
+        <v>381</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6324,13 +6357,13 @@
         <v>498459</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>494</v>
+        <v>343</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="H24" s="7">
         <v>497</v>
@@ -6339,13 +6372,13 @@
         <v>543606</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="M24" s="7">
         <v>964</v>
@@ -6354,13 +6387,13 @@
         <v>1042065</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6375,13 +6408,13 @@
         <v>125093</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>310</v>
+        <v>507</v>
       </c>
       <c r="H25" s="7">
         <v>139</v>
@@ -6390,13 +6423,13 @@
         <v>153335</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>505</v>
+        <v>311</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>185</v>
+        <v>301</v>
       </c>
       <c r="M25" s="7">
         <v>260</v>
@@ -6405,13 +6438,13 @@
         <v>278428</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6426,13 +6459,13 @@
         <v>36078</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>439</v>
+        <v>511</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>509</v>
+        <v>151</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="H26" s="7">
         <v>36</v>
@@ -6441,13 +6474,13 @@
         <v>42411</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="M26" s="7">
         <v>70</v>
@@ -6456,13 +6489,13 @@
         <v>78488</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>187</v>
+        <v>517</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6537,7 +6570,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C87EFDD2-D585-41B4-95DB-22FCC936EEBE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD9698D2-BDCB-41CE-A836-F175CF54BF75}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6554,7 +6587,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6661,13 +6694,13 @@
         <v>235672</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="H4" s="7">
         <v>560</v>
@@ -6676,13 +6709,13 @@
         <v>329350</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="M4" s="7">
         <v>854</v>
@@ -6691,13 +6724,13 @@
         <v>565022</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6712,13 +6745,13 @@
         <v>142909</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="H5" s="7">
         <v>378</v>
@@ -6727,13 +6760,13 @@
         <v>235268</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="M5" s="7">
         <v>557</v>
@@ -6742,13 +6775,13 @@
         <v>378178</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6763,13 +6796,13 @@
         <v>90879</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="H6" s="7">
         <v>280</v>
@@ -6778,13 +6811,13 @@
         <v>152212</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>220</v>
+        <v>542</v>
       </c>
       <c r="M6" s="7">
         <v>401</v>
@@ -6793,13 +6826,13 @@
         <v>243091</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>174</v>
+        <v>545</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6814,13 +6847,13 @@
         <v>47271</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="H7" s="7">
         <v>133</v>
@@ -6829,13 +6862,13 @@
         <v>74432</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="M7" s="7">
         <v>199</v>
@@ -6844,13 +6877,13 @@
         <v>121703</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6865,13 +6898,13 @@
         <v>19734</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="H8" s="7">
         <v>68</v>
@@ -6880,13 +6913,13 @@
         <v>39078</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>552</v>
+        <v>314</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>553</v>
+        <v>93</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="M8" s="7">
         <v>93</v>
@@ -6895,13 +6928,13 @@
         <v>58812</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>301</v>
+        <v>560</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6969,13 +7002,13 @@
         <v>1182577</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="H10" s="7">
         <v>1460</v>
@@ -6984,13 +7017,13 @@
         <v>1120598</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="M10" s="7">
         <v>2453</v>
@@ -6999,13 +7032,13 @@
         <v>2303176</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7020,13 +7053,13 @@
         <v>661600</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>373</v>
+        <v>572</v>
       </c>
       <c r="H11" s="7">
         <v>985</v>
@@ -7035,13 +7068,13 @@
         <v>695001</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>254</v>
+        <v>574</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="M11" s="7">
         <v>1657</v>
@@ -7050,13 +7083,13 @@
         <v>1356601</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7071,13 +7104,13 @@
         <v>228489</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="H12" s="7">
         <v>313</v>
@@ -7086,13 +7119,13 @@
         <v>218658</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>260</v>
+        <v>582</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="M12" s="7">
         <v>541</v>
@@ -7101,13 +7134,13 @@
         <v>447147</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7122,13 +7155,13 @@
         <v>63217</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>583</v>
+        <v>268</v>
       </c>
       <c r="H13" s="7">
         <v>113</v>
@@ -7137,13 +7170,13 @@
         <v>179725</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="M13" s="7">
         <v>182</v>
@@ -7152,13 +7185,13 @@
         <v>242942</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>304</v>
+        <v>593</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7173,13 +7206,13 @@
         <v>25371</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>320</v>
+        <v>597</v>
       </c>
       <c r="H14" s="7">
         <v>47</v>
@@ -7188,13 +7221,13 @@
         <v>32360</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>55</v>
+        <v>599</v>
       </c>
       <c r="M14" s="7">
         <v>76</v>
@@ -7203,13 +7236,13 @@
         <v>57730</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>591</v>
+        <v>189</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7265,7 +7298,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7277,13 +7310,13 @@
         <v>411002</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="H16" s="7">
         <v>657</v>
@@ -7292,13 +7325,13 @@
         <v>487859</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="M16" s="7">
         <v>1059</v>
@@ -7307,13 +7340,13 @@
         <v>898862</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7328,13 +7361,13 @@
         <v>193851</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>449</v>
+        <v>611</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
       <c r="H17" s="7">
         <v>264</v>
@@ -7343,13 +7376,13 @@
         <v>166553</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="M17" s="7">
         <v>470</v>
@@ -7358,13 +7391,13 @@
         <v>360404</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7379,13 +7412,13 @@
         <v>43450</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>612</v>
+        <v>273</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="H18" s="7">
         <v>52</v>
@@ -7394,13 +7427,13 @@
         <v>40691</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="M18" s="7">
         <v>99</v>
@@ -7409,13 +7442,13 @@
         <v>84141</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7430,13 +7463,13 @@
         <v>19837</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>268</v>
+        <v>139</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="H19" s="7">
         <v>24</v>
@@ -7445,13 +7478,13 @@
         <v>14699</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>189</v>
+        <v>321</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="M19" s="7">
         <v>44</v>
@@ -7460,13 +7493,13 @@
         <v>34536</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>237</v>
+        <v>632</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7481,13 +7514,13 @@
         <v>4143</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -7496,13 +7529,13 @@
         <v>4083</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="M20" s="7">
         <v>12</v>
@@ -7511,10 +7544,10 @@
         <v>8226</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>629</v>
+        <v>638</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>193</v>
@@ -7585,13 +7618,13 @@
         <v>1829252</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>108</v>
+        <v>641</v>
       </c>
       <c r="H22" s="7">
         <v>2677</v>
@@ -7600,13 +7633,13 @@
         <v>1937808</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>632</v>
+        <v>642</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>633</v>
+        <v>643</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>634</v>
+        <v>644</v>
       </c>
       <c r="M22" s="7">
         <v>4366</v>
@@ -7615,13 +7648,13 @@
         <v>3767059</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>635</v>
+        <v>645</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>636</v>
+        <v>646</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>637</v>
+        <v>647</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7636,13 +7669,13 @@
         <v>998361</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>639</v>
+        <v>649</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>640</v>
+        <v>650</v>
       </c>
       <c r="H23" s="7">
         <v>1627</v>
@@ -7651,13 +7684,13 @@
         <v>1096822</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>641</v>
+        <v>651</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>642</v>
+        <v>652</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>643</v>
+        <v>653</v>
       </c>
       <c r="M23" s="7">
         <v>2684</v>
@@ -7666,13 +7699,13 @@
         <v>2095183</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>644</v>
+        <v>654</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>645</v>
+        <v>655</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>646</v>
+        <v>656</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7687,13 +7720,13 @@
         <v>362817</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>647</v>
+        <v>657</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>648</v>
+        <v>658</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>649</v>
+        <v>659</v>
       </c>
       <c r="H24" s="7">
         <v>645</v>
@@ -7702,13 +7735,13 @@
         <v>411562</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>650</v>
+        <v>660</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>651</v>
+        <v>661</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>652</v>
+        <v>662</v>
       </c>
       <c r="M24" s="7">
         <v>1041</v>
@@ -7717,13 +7750,13 @@
         <v>774379</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>653</v>
+        <v>663</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>654</v>
+        <v>81</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7738,13 +7771,13 @@
         <v>130325</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>270</v>
+        <v>664</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>53</v>
+        <v>665</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>655</v>
+        <v>666</v>
       </c>
       <c r="H25" s="7">
         <v>270</v>
@@ -7753,13 +7786,13 @@
         <v>268856</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>656</v>
+        <v>667</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>657</v>
+        <v>437</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>658</v>
+        <v>668</v>
       </c>
       <c r="M25" s="7">
         <v>425</v>
@@ -7768,13 +7801,13 @@
         <v>399181</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>659</v>
+        <v>669</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>660</v>
+        <v>353</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>661</v>
+        <v>670</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7789,13 +7822,13 @@
         <v>49247</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>662</v>
+        <v>512</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>191</v>
+        <v>671</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>663</v>
+        <v>672</v>
       </c>
       <c r="H26" s="7">
         <v>122</v>
@@ -7807,7 +7840,7 @@
         <v>51</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>664</v>
+        <v>673</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>57</v>
@@ -7819,13 +7852,13 @@
         <v>124769</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>437</v>
+        <v>674</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>195</v>
+        <v>675</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>665</v>
+        <v>676</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P5709-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P5709-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{984C59AB-363C-438A-A10B-66736B2853D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5D3C9DD-0E9B-4F34-8F88-EC8295332773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F9778E86-74BE-4439-891E-970C482FE4AE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F49B37C3-CB73-48D9-85BC-24F5821C140A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="671">
   <si>
     <t>Población según la frecuencia de recibir invitaciones para distraerse y salir con otras personas en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -80,1996 +80,1978 @@
     <t>40,0%</t>
   </si>
   <si>
-    <t>46,26%</t>
+    <t>45,91%</t>
   </si>
   <si>
     <t>38,95%</t>
   </si>
   <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
   </si>
   <si>
     <t>40,8%</t>
   </si>
   <si>
-    <t>38,77%</t>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>Casi como deseo</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>Ni mucho ni poco</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>Menos de lo que deseo</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>Mucho menos de lo que deseo</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>60,83%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>63,46%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>53,28%</t>
+  </si>
+  <si>
+    <t>58,1%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>56,74%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>61,37%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>65,26%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>60,03%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>63,29%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>53,67%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de recibir invitaciones para distraerse y salir con otras personas en 2012 (Tasa respuesta: 99,69%)</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
+  </si>
+  <si>
+    <t>56,22%</t>
+  </si>
+  <si>
+    <t>60,86%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>56,68%</t>
+  </si>
+  <si>
+    <t>54,89%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>59,12%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>63,64%</t>
+  </si>
+  <si>
+    <t>67,88%</t>
+  </si>
+  <si>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>60,62%</t>
+  </si>
+  <si>
+    <t>67,43%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>54,87%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>54,34%</t>
+  </si>
+  <si>
+    <t>53,11%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de recibir invitaciones para distraerse y salir con otras personas en 2016 (Tasa respuesta: 99,73%)</t>
   </si>
   <si>
     <t>42,84%</t>
   </si>
   <si>
-    <t>Casi como deseo</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>50,1%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>46,86%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de recibir invitaciones para distraerse y salir con otras personas en 2023 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>54,72%</t>
+  </si>
+  <si>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
+  </si>
+  <si>
+    <t>65,04%</t>
+  </si>
+  <si>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
+  </si>
+  <si>
+    <t>56,8%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>52,61%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
+  </si>
+  <si>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
   </si>
   <si>
     <t>25,93%</t>
   </si>
   <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>Ni mucho ni poco</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>Menos de lo que deseo</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>Mucho menos de lo que deseo</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>60,16%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>61,37%</t>
-  </si>
-  <si>
-    <t>57,22%</t>
-  </si>
-  <si>
-    <t>65,71%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>63,13%</t>
-  </si>
-  <si>
-    <t>60,03%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>63,12%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
-  </si>
-  <si>
-    <t>57,0%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>51,41%</t>
-  </si>
-  <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
-  </si>
-  <si>
-    <t>53,75%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de recibir invitaciones para distraerse y salir con otras personas en 2012 (Tasa respuesta: 99,69%)</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>61,02%</t>
-  </si>
-  <si>
-    <t>54,26%</t>
-  </si>
-  <si>
-    <t>51,88%</t>
-  </si>
-  <si>
-    <t>56,61%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>58,36%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>63,64%</t>
-  </si>
-  <si>
-    <t>58,73%</t>
-  </si>
-  <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>64,01%</t>
-  </si>
-  <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>56,67%</t>
-  </si>
-  <si>
-    <t>54,83%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>50,39%</t>
-  </si>
-  <si>
-    <t>53,82%</t>
-  </si>
-  <si>
-    <t>54,34%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>55,58%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de recibir invitaciones para distraerse y salir con otras personas en 2016 (Tasa respuesta: 99,73%)</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>46,86%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
   </si>
   <si>
     <t>4,14%</t>
   </si>
   <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>58,79%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>52,94%</t>
-  </si>
-  <si>
-    <t>61,4%</t>
-  </si>
-  <si>
-    <t>55,75%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
-  </si>
-  <si>
-    <t>58,5%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>46,63%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
   </si>
   <si>
     <t>1,46%</t>
   </si>
   <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de recibir invitaciones para distraerse y salir con otras personas en 2023 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>54,72%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>58,66%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>53,22%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
-  </si>
-  <si>
-    <t>65,32%</t>
-  </si>
-  <si>
-    <t>71,56%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>62,2%</t>
-  </si>
-  <si>
-    <t>67,24%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>52,61%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>54,22%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
     <t>1,13%</t>
   </si>
   <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
   </si>
   <si>
     <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
   </si>
 </sst>
 </file>
@@ -2481,7 +2463,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F539DB31-A7F6-4A9D-AA3E-C6F2AF6A46D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5938FF3-D0AF-4751-9AD9-FF9A678D5333}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3165,7 +3147,7 @@
         <v>1649</v>
       </c>
       <c r="D15" s="7">
-        <v>1693413</v>
+        <v>1693412</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -3305,10 +3287,10 @@
         <v>123</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3323,13 +3305,13 @@
         <v>65855</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H18" s="7">
         <v>48</v>
@@ -3338,13 +3320,13 @@
         <v>51110</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M18" s="7">
         <v>110</v>
@@ -3353,13 +3335,13 @@
         <v>116965</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3374,13 +3356,13 @@
         <v>14998</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H19" s="7">
         <v>20</v>
@@ -3389,13 +3371,13 @@
         <v>21766</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M19" s="7">
         <v>35</v>
@@ -3404,13 +3386,13 @@
         <v>36763</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3425,13 +3407,13 @@
         <v>1753</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -3440,13 +3422,13 @@
         <v>1007</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -3455,13 +3437,13 @@
         <v>2761</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3529,13 +3511,13 @@
         <v>1813122</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>1656</v>
@@ -3544,13 +3526,13 @@
         <v>1676085</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M22" s="7">
         <v>3431</v>
@@ -3559,13 +3541,13 @@
         <v>3489208</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3580,13 +3562,13 @@
         <v>821158</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H23" s="7">
         <v>787</v>
@@ -3595,13 +3577,13 @@
         <v>804829</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="M23" s="7">
         <v>1593</v>
@@ -3610,13 +3592,13 @@
         <v>1625987</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3631,13 +3613,13 @@
         <v>477289</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H24" s="7">
         <v>584</v>
@@ -3646,13 +3628,13 @@
         <v>608605</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M24" s="7">
         <v>1059</v>
@@ -3661,13 +3643,13 @@
         <v>1085895</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3682,13 +3664,13 @@
         <v>134872</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>181</v>
+        <v>141</v>
       </c>
       <c r="H25" s="7">
         <v>222</v>
@@ -3697,13 +3679,13 @@
         <v>237895</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="M25" s="7">
         <v>352</v>
@@ -3712,13 +3694,13 @@
         <v>372767</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3733,13 +3715,13 @@
         <v>29018</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>106</v>
+        <v>184</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H26" s="7">
         <v>47</v>
@@ -3748,13 +3730,13 @@
         <v>50631</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>190</v>
+        <v>135</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="M26" s="7">
         <v>74</v>
@@ -3763,13 +3745,13 @@
         <v>79649</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3825,7 +3807,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -3844,7 +3826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9F28FA9-0391-4EDE-9719-C6DF79012AB1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B25F98C5-483D-4907-95D4-DB62EB5CA5DE}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3861,7 +3843,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3968,13 +3950,13 @@
         <v>473369</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H4" s="7">
         <v>563</v>
@@ -3983,13 +3965,13 @@
         <v>603410</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="M4" s="7">
         <v>1010</v>
@@ -3998,13 +3980,13 @@
         <v>1076779</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4019,13 +4001,13 @@
         <v>264706</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H5" s="7">
         <v>343</v>
@@ -4034,13 +4016,13 @@
         <v>366610</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="M5" s="7">
         <v>585</v>
@@ -4049,13 +4031,13 @@
         <v>631316</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4070,13 +4052,13 @@
         <v>153624</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H6" s="7">
         <v>224</v>
@@ -4085,13 +4067,13 @@
         <v>241638</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="M6" s="7">
         <v>367</v>
@@ -4100,13 +4082,13 @@
         <v>395263</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4121,13 +4103,13 @@
         <v>58182</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="H7" s="7">
         <v>70</v>
@@ -4136,13 +4118,13 @@
         <v>75242</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>182</v>
+        <v>226</v>
       </c>
       <c r="M7" s="7">
         <v>123</v>
@@ -4151,13 +4133,13 @@
         <v>133425</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4172,13 +4154,13 @@
         <v>18786</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>52</v>
+        <v>231</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H8" s="7">
         <v>42</v>
@@ -4187,13 +4169,13 @@
         <v>44828</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>237</v>
+        <v>137</v>
       </c>
       <c r="M8" s="7">
         <v>59</v>
@@ -4202,13 +4184,13 @@
         <v>63614</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>239</v>
+        <v>90</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4276,13 +4258,13 @@
         <v>1149812</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>63</v>
+        <v>237</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H10" s="7">
         <v>886</v>
@@ -4291,13 +4273,13 @@
         <v>953196</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="M10" s="7">
         <v>1977</v>
@@ -4306,13 +4288,13 @@
         <v>2103007</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>246</v>
+        <v>109</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4327,13 +4309,13 @@
         <v>522702</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="H11" s="7">
         <v>459</v>
@@ -4342,13 +4324,13 @@
         <v>484984</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="M11" s="7">
         <v>958</v>
@@ -4357,13 +4339,13 @@
         <v>1007686</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4378,13 +4360,13 @@
         <v>217804</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H12" s="7">
         <v>189</v>
@@ -4393,13 +4375,13 @@
         <v>204360</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>263</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>386</v>
@@ -4408,13 +4390,13 @@
         <v>422164</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4429,13 +4411,13 @@
         <v>57825</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>139</v>
+        <v>262</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H13" s="7">
         <v>78</v>
@@ -4444,13 +4426,13 @@
         <v>88832</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="M13" s="7">
         <v>133</v>
@@ -4459,13 +4441,13 @@
         <v>146657</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>56</v>
+        <v>268</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4480,13 +4462,13 @@
         <v>12545</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H14" s="7">
         <v>22</v>
@@ -4495,13 +4477,13 @@
         <v>25331</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>278</v>
+        <v>106</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="M14" s="7">
         <v>33</v>
@@ -4510,13 +4492,13 @@
         <v>37875</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4584,13 +4566,13 @@
         <v>308331</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="H16" s="7">
         <v>263</v>
@@ -4599,13 +4581,13 @@
         <v>289814</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>286</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="M16" s="7">
         <v>546</v>
@@ -4614,13 +4596,13 @@
         <v>598145</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4635,13 +4617,13 @@
         <v>115730</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H17" s="7">
         <v>103</v>
@@ -4650,13 +4632,13 @@
         <v>117075</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="M17" s="7">
         <v>209</v>
@@ -4665,13 +4647,13 @@
         <v>232804</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4686,13 +4668,13 @@
         <v>36442</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H18" s="7">
         <v>31</v>
@@ -4701,13 +4683,13 @@
         <v>35838</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="M18" s="7">
         <v>61</v>
@@ -4716,13 +4698,13 @@
         <v>72280</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4737,13 +4719,13 @@
         <v>12158</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H19" s="7">
         <v>11</v>
@@ -4752,13 +4734,13 @@
         <v>11524</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>314</v>
+        <v>225</v>
       </c>
       <c r="M19" s="7">
         <v>23</v>
@@ -4767,13 +4749,13 @@
         <v>23682</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4788,13 +4770,13 @@
         <v>6424</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -4803,13 +4785,13 @@
         <v>1162</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="M20" s="7">
         <v>6</v>
@@ -4818,13 +4800,13 @@
         <v>7587</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>144</v>
+        <v>272</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4892,13 +4874,13 @@
         <v>1931512</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>248</v>
+        <v>321</v>
       </c>
       <c r="H22" s="7">
         <v>1712</v>
@@ -4907,13 +4889,13 @@
         <v>1846420</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="M22" s="7">
         <v>3533</v>
@@ -4922,13 +4904,13 @@
         <v>3777932</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4943,13 +4925,13 @@
         <v>903138</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>333</v>
+        <v>207</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="H23" s="7">
         <v>905</v>
@@ -4958,13 +4940,13 @@
         <v>968670</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="M23" s="7">
         <v>1752</v>
@@ -4973,13 +4955,13 @@
         <v>1871807</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4994,13 +4976,13 @@
         <v>407870</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>82</v>
+        <v>336</v>
       </c>
       <c r="H24" s="7">
         <v>444</v>
@@ -5009,13 +4991,13 @@
         <v>481837</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>342</v>
+        <v>261</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="M24" s="7">
         <v>814</v>
@@ -5024,13 +5006,13 @@
         <v>889707</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5045,13 +5027,13 @@
         <v>128165</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>91</v>
+        <v>342</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="H25" s="7">
         <v>159</v>
@@ -5060,13 +5042,13 @@
         <v>175599</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>349</v>
+        <v>141</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="M25" s="7">
         <v>279</v>
@@ -5075,13 +5057,13 @@
         <v>303764</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5096,13 +5078,13 @@
         <v>37755</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="H26" s="7">
         <v>65</v>
@@ -5111,13 +5093,13 @@
         <v>71321</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="M26" s="7">
         <v>98</v>
@@ -5126,13 +5108,13 @@
         <v>109076</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>362</v>
+        <v>186</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5188,7 +5170,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -5207,7 +5189,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8944DE6-EE4E-453C-925C-2107FAB0A461}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0889FB99-128E-4C9D-90B6-91DCC2ACFEC2}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5224,7 +5206,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5331,13 +5313,13 @@
         <v>323142</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>19</v>
+        <v>359</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="H4" s="7">
         <v>358</v>
@@ -5346,13 +5328,13 @@
         <v>393572</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="M4" s="7">
         <v>685</v>
@@ -5361,13 +5343,13 @@
         <v>716714</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5382,13 +5364,13 @@
         <v>241572</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="H5" s="7">
         <v>268</v>
@@ -5397,13 +5379,13 @@
         <v>294511</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>377</v>
+        <v>36</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="M5" s="7">
         <v>512</v>
@@ -5412,13 +5394,13 @@
         <v>536083</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5433,13 +5415,13 @@
         <v>128100</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="H6" s="7">
         <v>171</v>
@@ -5448,13 +5430,13 @@
         <v>196350</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="M6" s="7">
         <v>296</v>
@@ -5463,13 +5445,13 @@
         <v>324449</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>389</v>
+        <v>171</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5484,13 +5466,13 @@
         <v>50225</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="H7" s="7">
         <v>67</v>
@@ -5499,13 +5481,13 @@
         <v>77450</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>396</v>
+        <v>304</v>
       </c>
       <c r="M7" s="7">
         <v>121</v>
@@ -5514,13 +5496,13 @@
         <v>127674</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5535,13 +5517,13 @@
         <v>11309</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>190</v>
+        <v>135</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="H8" s="7">
         <v>24</v>
@@ -5550,13 +5532,13 @@
         <v>28557</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="M8" s="7">
         <v>36</v>
@@ -5565,13 +5547,13 @@
         <v>39866</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5639,13 +5621,13 @@
         <v>951727</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="H10" s="7">
         <v>924</v>
@@ -5654,13 +5636,13 @@
         <v>943182</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="M10" s="7">
         <v>1821</v>
@@ -5669,13 +5651,13 @@
         <v>1894910</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5690,13 +5672,13 @@
         <v>718325</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="H11" s="7">
         <v>628</v>
@@ -5705,13 +5687,13 @@
         <v>662863</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="M11" s="7">
         <v>1306</v>
@@ -5720,13 +5702,13 @@
         <v>1381188</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5741,13 +5723,13 @@
         <v>304902</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>82</v>
+        <v>418</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="H12" s="7">
         <v>277</v>
@@ -5756,13 +5738,13 @@
         <v>298540</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>128</v>
+        <v>420</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="M12" s="7">
         <v>563</v>
@@ -5771,13 +5753,13 @@
         <v>603442</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5792,13 +5774,13 @@
         <v>72046</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>435</v>
+        <v>347</v>
       </c>
       <c r="H13" s="7">
         <v>62</v>
@@ -5807,13 +5789,13 @@
         <v>65199</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>407</v>
+        <v>269</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>436</v>
+        <v>392</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="M13" s="7">
         <v>127</v>
@@ -5822,13 +5804,13 @@
         <v>137246</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5843,13 +5825,13 @@
         <v>23733</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>276</v>
+        <v>432</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>151</v>
+        <v>433</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="H14" s="7">
         <v>11</v>
@@ -5858,13 +5840,13 @@
         <v>12000</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>188</v>
+        <v>435</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>144</v>
+        <v>272</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="M14" s="7">
         <v>32</v>
@@ -5873,13 +5855,13 @@
         <v>35733</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>188</v>
+        <v>438</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>103</v>
+        <v>439</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5947,13 +5929,13 @@
         <v>296938</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="H16" s="7">
         <v>302</v>
@@ -5962,13 +5944,13 @@
         <v>312584</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="M16" s="7">
         <v>577</v>
@@ -5977,13 +5959,13 @@
         <v>609521</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5998,13 +5980,13 @@
         <v>179768</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="H17" s="7">
         <v>162</v>
@@ -6013,28 +5995,28 @@
         <v>173390</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="M17" s="7">
         <v>328</v>
       </c>
       <c r="N17" s="7">
-        <v>353158</v>
+        <v>353157</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6049,13 +6031,13 @@
         <v>65457</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="H18" s="7">
         <v>49</v>
@@ -6064,13 +6046,13 @@
         <v>48717</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="M18" s="7">
         <v>105</v>
@@ -6079,13 +6061,13 @@
         <v>114174</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>43</v>
+        <v>465</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6100,13 +6082,13 @@
         <v>2822</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="H19" s="7">
         <v>10</v>
@@ -6115,13 +6097,13 @@
         <v>10686</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>472</v>
+        <v>394</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="M19" s="7">
         <v>12</v>
@@ -6130,13 +6112,13 @@
         <v>13508</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>103</v>
+        <v>471</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>475</v>
+        <v>271</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6151,13 +6133,13 @@
         <v>1036</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -6166,13 +6148,13 @@
         <v>1854</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -6181,13 +6163,13 @@
         <v>2890</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6229,7 +6211,7 @@
         <v>1024</v>
       </c>
       <c r="N21" s="7">
-        <v>1093251</v>
+        <v>1093250</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -6255,13 +6237,13 @@
         <v>1571807</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="H22" s="7">
         <v>1584</v>
@@ -6270,13 +6252,13 @@
         <v>1649337</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>366</v>
+        <v>480</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="M22" s="7">
         <v>3083</v>
@@ -6285,13 +6267,13 @@
         <v>3221145</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6306,13 +6288,13 @@
         <v>1139665</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H23" s="7">
         <v>1058</v>
@@ -6321,13 +6303,13 @@
         <v>1130763</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="M23" s="7">
         <v>2146</v>
@@ -6336,13 +6318,13 @@
         <v>2270429</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>381</v>
+        <v>492</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6357,13 +6339,13 @@
         <v>498459</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>343</v>
+        <v>495</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H24" s="7">
         <v>497</v>
@@ -6372,13 +6354,13 @@
         <v>543606</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>500</v>
+        <v>174</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="M24" s="7">
         <v>964</v>
@@ -6387,13 +6369,13 @@
         <v>1042065</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6408,13 +6390,13 @@
         <v>125093</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>505</v>
+        <v>311</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="H25" s="7">
         <v>139</v>
@@ -6423,13 +6405,13 @@
         <v>153335</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>311</v>
+        <v>505</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>301</v>
+        <v>507</v>
       </c>
       <c r="M25" s="7">
         <v>260</v>
@@ -6438,13 +6420,13 @@
         <v>278428</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>509</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6459,10 +6441,10 @@
         <v>36078</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>511</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>512</v>
@@ -6492,10 +6474,10 @@
         <v>516</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>517</v>
+        <v>184</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>518</v>
+        <v>274</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6551,7 +6533,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -6570,7 +6552,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD9698D2-BDCB-41CE-A836-F175CF54BF75}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EE3BB90-3B5F-4E36-A794-0E42F15C8453}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6587,7 +6569,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6694,13 +6676,13 @@
         <v>235672</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>520</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>521</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>522</v>
       </c>
       <c r="H4" s="7">
         <v>560</v>
@@ -6709,13 +6691,13 @@
         <v>329350</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>523</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>524</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>525</v>
       </c>
       <c r="M4" s="7">
         <v>854</v>
@@ -6724,13 +6706,13 @@
         <v>565022</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>526</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>527</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6745,13 +6727,13 @@
         <v>142909</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>529</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>530</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>531</v>
       </c>
       <c r="H5" s="7">
         <v>378</v>
@@ -6760,13 +6742,13 @@
         <v>235268</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>534</v>
+        <v>412</v>
       </c>
       <c r="M5" s="7">
         <v>557</v>
@@ -6775,13 +6757,13 @@
         <v>378178</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6796,13 +6778,13 @@
         <v>90879</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>385</v>
+        <v>537</v>
       </c>
       <c r="H6" s="7">
         <v>280</v>
@@ -6811,13 +6793,13 @@
         <v>152212</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>540</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>541</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>542</v>
       </c>
       <c r="M6" s="7">
         <v>401</v>
@@ -6826,13 +6808,13 @@
         <v>243091</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>543</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>544</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6847,13 +6829,13 @@
         <v>47271</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>546</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>547</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>548</v>
       </c>
       <c r="H7" s="7">
         <v>133</v>
@@ -6862,13 +6844,13 @@
         <v>74432</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>549</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>550</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>551</v>
       </c>
       <c r="M7" s="7">
         <v>199</v>
@@ -6877,13 +6859,13 @@
         <v>121703</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6898,13 +6880,13 @@
         <v>19734</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>554</v>
+        <v>93</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="H8" s="7">
         <v>68</v>
@@ -6913,13 +6895,13 @@
         <v>39078</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>314</v>
+        <v>554</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>93</v>
+        <v>508</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="M8" s="7">
         <v>93</v>
@@ -6928,13 +6910,13 @@
         <v>58812</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>559</v>
+        <v>426</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6999,16 +6981,16 @@
         <v>993</v>
       </c>
       <c r="D10" s="7">
-        <v>1182577</v>
+        <v>1182578</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="H10" s="7">
         <v>1460</v>
@@ -7017,13 +6999,13 @@
         <v>1120598</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="M10" s="7">
         <v>2453</v>
@@ -7032,13 +7014,13 @@
         <v>2303176</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>567</v>
+        <v>196</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7053,13 +7035,13 @@
         <v>661600</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="H11" s="7">
         <v>985</v>
@@ -7068,13 +7050,13 @@
         <v>695001</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="M11" s="7">
         <v>1657</v>
@@ -7083,13 +7065,13 @@
         <v>1356601</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7104,13 +7086,13 @@
         <v>228489</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="H12" s="7">
         <v>313</v>
@@ -7119,13 +7101,13 @@
         <v>218658</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="M12" s="7">
         <v>541</v>
@@ -7134,13 +7116,13 @@
         <v>447147</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7155,13 +7137,13 @@
         <v>63217</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>268</v>
+        <v>586</v>
       </c>
       <c r="H13" s="7">
         <v>113</v>
@@ -7170,13 +7152,13 @@
         <v>179725</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>591</v>
+        <v>138</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="M13" s="7">
         <v>182</v>
@@ -7185,13 +7167,13 @@
         <v>242942</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7206,13 +7188,13 @@
         <v>25371</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>356</v>
+        <v>593</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="H14" s="7">
         <v>47</v>
@@ -7221,13 +7203,13 @@
         <v>32360</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="M14" s="7">
         <v>76</v>
@@ -7236,13 +7218,13 @@
         <v>57730</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>189</v>
+        <v>597</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7254,7 +7236,7 @@
         <v>1991</v>
       </c>
       <c r="D15" s="7">
-        <v>2161253</v>
+        <v>2161254</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -7310,13 +7292,13 @@
         <v>411002</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>603</v>
+        <v>151</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H16" s="7">
         <v>657</v>
@@ -7325,13 +7307,13 @@
         <v>487859</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="M16" s="7">
         <v>1059</v>
@@ -7340,13 +7322,13 @@
         <v>898862</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7361,13 +7343,13 @@
         <v>193851</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="H17" s="7">
         <v>264</v>
@@ -7376,13 +7358,13 @@
         <v>166553</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="M17" s="7">
         <v>470</v>
@@ -7391,13 +7373,13 @@
         <v>360404</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7412,13 +7394,13 @@
         <v>43450</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>273</v>
+        <v>617</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="H18" s="7">
         <v>52</v>
@@ -7427,13 +7409,13 @@
         <v>40691</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>623</v>
+        <v>345</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="M18" s="7">
         <v>99</v>
@@ -7442,13 +7424,13 @@
         <v>84141</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7463,13 +7445,13 @@
         <v>19837</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>139</v>
+        <v>262</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="H19" s="7">
         <v>24</v>
@@ -7478,13 +7460,13 @@
         <v>14699</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>630</v>
+        <v>55</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>321</v>
+        <v>597</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="M19" s="7">
         <v>44</v>
@@ -7493,13 +7475,13 @@
         <v>34536</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7514,13 +7496,13 @@
         <v>4143</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>147</v>
+        <v>473</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>628</v>
+        <v>191</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -7529,13 +7511,13 @@
         <v>4083</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>320</v>
+        <v>632</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="M20" s="7">
         <v>12</v>
@@ -7544,13 +7526,13 @@
         <v>8226</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>637</v>
+        <v>185</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>193</v>
+        <v>273</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7618,13 +7600,13 @@
         <v>1829252</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="H22" s="7">
         <v>2677</v>
@@ -7633,13 +7615,13 @@
         <v>1937808</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>644</v>
+        <v>563</v>
       </c>
       <c r="M22" s="7">
         <v>4366</v>
@@ -7648,13 +7630,13 @@
         <v>3767059</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7669,13 +7651,13 @@
         <v>998361</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="H23" s="7">
         <v>1627</v>
@@ -7684,13 +7666,13 @@
         <v>1096822</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>651</v>
+        <v>331</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="M23" s="7">
         <v>2684</v>
@@ -7699,13 +7681,13 @@
         <v>2095183</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7720,13 +7702,13 @@
         <v>362817</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="H24" s="7">
         <v>645</v>
@@ -7735,13 +7717,13 @@
         <v>411562</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>660</v>
+        <v>335</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="M24" s="7">
         <v>1041</v>
@@ -7750,13 +7732,13 @@
         <v>774379</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>81</v>
+        <v>656</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>261</v>
+        <v>657</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7771,13 +7753,13 @@
         <v>130325</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>666</v>
+        <v>222</v>
       </c>
       <c r="H25" s="7">
         <v>270</v>
@@ -7786,13 +7768,13 @@
         <v>268856</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>437</v>
+        <v>661</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="M25" s="7">
         <v>425</v>
@@ -7801,13 +7783,13 @@
         <v>399181</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>353</v>
+        <v>664</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7822,13 +7804,13 @@
         <v>49247</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>512</v>
+        <v>666</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>672</v>
+        <v>318</v>
       </c>
       <c r="H26" s="7">
         <v>122</v>
@@ -7840,10 +7822,10 @@
         <v>51</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>57</v>
+        <v>669</v>
       </c>
       <c r="M26" s="7">
         <v>181</v>
@@ -7852,13 +7834,13 @@
         <v>124769</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>675</v>
+        <v>278</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>676</v>
+        <v>596</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7914,7 +7896,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P5709-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P5709-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5D3C9DD-0E9B-4F34-8F88-EC8295332773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{348F3262-FA73-4DE1-BB35-43AD3BA24326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F49B37C3-CB73-48D9-85BC-24F5821C140A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{EEF454DC-6966-4A86-9A9D-C62508D53670}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="667">
   <si>
     <t>Población según la frecuencia de recibir invitaciones para distraerse y salir con otras personas en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -1595,463 +1595,451 @@
     <t>Población según la frecuencia de recibir invitaciones para distraerse y salir con otras personas en 2023 (Tasa respuesta: 99,71%)</t>
   </si>
   <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
   </si>
   <si>
     <t>8,81%</t>
   </si>
   <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>59,9%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>55,0%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>61,83%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>62,2%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
+  </si>
+  <si>
+    <t>62,98%</t>
+  </si>
+  <si>
+    <t>67,96%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>58,14%</t>
+  </si>
+  <si>
+    <t>54,22%</t>
+  </si>
+  <si>
+    <t>67,26%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
   </si>
   <si>
     <t>54,72%</t>
   </si>
   <si>
-    <t>52,04%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>47,49%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
-  </si>
-  <si>
-    <t>65,04%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>62,26%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
-  </si>
-  <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>52,61%</t>
-  </si>
-  <si>
-    <t>49,77%</t>
-  </si>
-  <si>
-    <t>54,43%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
+    <t>49,85%</t>
+  </si>
+  <si>
+    <t>59,56%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
   </si>
   <si>
     <t>1,46%</t>
   </si>
   <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
   </si>
 </sst>
 </file>
@@ -2463,7 +2451,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5938FF3-D0AF-4751-9AD9-FF9A678D5333}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FCAF5-7AED-47BF-8AE1-7267B6E40640}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2869,7 +2857,7 @@
         <v>2329</v>
       </c>
       <c r="N9" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>60</v>
@@ -3147,7 +3135,7 @@
         <v>1649</v>
       </c>
       <c r="D15" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -3589,7 +3577,7 @@
         <v>1593</v>
       </c>
       <c r="N23" s="7">
-        <v>1625987</v>
+        <v>1625986</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>164</v>
@@ -3640,7 +3628,7 @@
         <v>1059</v>
       </c>
       <c r="N24" s="7">
-        <v>1085895</v>
+        <v>1085894</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>173</v>
@@ -3793,7 +3781,7 @@
         <v>6509</v>
       </c>
       <c r="N27" s="7">
-        <v>6653506</v>
+        <v>6653505</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -3826,7 +3814,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B25F98C5-483D-4907-95D4-DB62EB5CA5DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66FB105F-7974-43BC-94E2-C98EDFA07A18}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4871,7 +4859,7 @@
         <v>1821</v>
       </c>
       <c r="D22" s="7">
-        <v>1931512</v>
+        <v>1931511</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>319</v>
@@ -5126,7 +5114,7 @@
         <v>3191</v>
       </c>
       <c r="D27" s="7">
-        <v>3408440</v>
+        <v>3408439</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -5189,7 +5177,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0889FB99-128E-4C9D-90B6-91DCC2ACFEC2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{180A4BE5-D288-4AD4-81FC-0AF91BA6EB05}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5618,7 +5606,7 @@
         <v>897</v>
       </c>
       <c r="D10" s="7">
-        <v>951727</v>
+        <v>951728</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>399</v>
@@ -5669,7 +5657,7 @@
         <v>678</v>
       </c>
       <c r="D11" s="7">
-        <v>718325</v>
+        <v>718326</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>408</v>
@@ -5771,7 +5759,7 @@
         <v>65</v>
       </c>
       <c r="D13" s="7">
-        <v>72046</v>
+        <v>72047</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>426</v>
@@ -5873,7 +5861,7 @@
         <v>1947</v>
       </c>
       <c r="D15" s="7">
-        <v>2070734</v>
+        <v>2070735</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -6007,7 +5995,7 @@
         <v>328</v>
       </c>
       <c r="N17" s="7">
-        <v>353157</v>
+        <v>353158</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>455</v>
@@ -6211,7 +6199,7 @@
         <v>1024</v>
       </c>
       <c r="N21" s="7">
-        <v>1093250</v>
+        <v>1093251</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -6552,7 +6540,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EE3BB90-3B5F-4E36-A794-0E42F15C8453}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151BD39E-63B1-487C-9C08-D0445B9C8BFE}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6673,7 +6661,7 @@
         <v>294</v>
       </c>
       <c r="D4" s="7">
-        <v>235672</v>
+        <v>230065</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>518</v>
@@ -6688,7 +6676,7 @@
         <v>560</v>
       </c>
       <c r="I4" s="7">
-        <v>329350</v>
+        <v>305354</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>521</v>
@@ -6703,7 +6691,7 @@
         <v>854</v>
       </c>
       <c r="N4" s="7">
-        <v>565022</v>
+        <v>535419</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>524</v>
@@ -6724,37 +6712,37 @@
         <v>179</v>
       </c>
       <c r="D5" s="7">
-        <v>142909</v>
+        <v>135031</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>527</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>528</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>529</v>
       </c>
       <c r="H5" s="7">
         <v>378</v>
       </c>
       <c r="I5" s="7">
-        <v>235268</v>
+        <v>206553</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>531</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>412</v>
       </c>
       <c r="M5" s="7">
         <v>557</v>
       </c>
       <c r="N5" s="7">
-        <v>378178</v>
+        <v>341585</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>532</v>
@@ -6775,7 +6763,7 @@
         <v>121</v>
       </c>
       <c r="D6" s="7">
-        <v>90879</v>
+        <v>84293</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>535</v>
@@ -6790,7 +6778,7 @@
         <v>280</v>
       </c>
       <c r="I6" s="7">
-        <v>152212</v>
+        <v>137995</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>538</v>
@@ -6805,16 +6793,16 @@
         <v>401</v>
       </c>
       <c r="N6" s="7">
-        <v>243091</v>
+        <v>222287</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>541</v>
       </c>
       <c r="P6" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>542</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6826,40 +6814,40 @@
         <v>66</v>
       </c>
       <c r="D7" s="7">
-        <v>47271</v>
+        <v>42593</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>544</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>545</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>546</v>
       </c>
       <c r="H7" s="7">
         <v>133</v>
       </c>
       <c r="I7" s="7">
-        <v>74432</v>
+        <v>66117</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>548</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>549</v>
       </c>
       <c r="M7" s="7">
         <v>199</v>
       </c>
       <c r="N7" s="7">
-        <v>121703</v>
+        <v>108710</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>461</v>
+        <v>549</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>550</v>
@@ -6877,43 +6865,43 @@
         <v>25</v>
       </c>
       <c r="D8" s="7">
-        <v>19734</v>
+        <v>18221</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>93</v>
+        <v>552</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H8" s="7">
         <v>68</v>
       </c>
       <c r="I8" s="7">
-        <v>39078</v>
+        <v>34522</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>554</v>
+        <v>270</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>508</v>
+        <v>555</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>555</v>
+        <v>227</v>
       </c>
       <c r="M8" s="7">
         <v>93</v>
       </c>
       <c r="N8" s="7">
-        <v>58812</v>
+        <v>52743</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>556</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>426</v>
+        <v>233</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>557</v>
@@ -6928,7 +6916,7 @@
         <v>685</v>
       </c>
       <c r="D9" s="7">
-        <v>536465</v>
+        <v>510203</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>60</v>
@@ -6943,7 +6931,7 @@
         <v>1419</v>
       </c>
       <c r="I9" s="7">
-        <v>830340</v>
+        <v>750541</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>60</v>
@@ -6958,7 +6946,7 @@
         <v>2104</v>
       </c>
       <c r="N9" s="7">
-        <v>1366806</v>
+        <v>1260744</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>60</v>
@@ -6981,7 +6969,7 @@
         <v>993</v>
       </c>
       <c r="D10" s="7">
-        <v>1182578</v>
+        <v>1371483</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>558</v>
@@ -6996,7 +6984,7 @@
         <v>1460</v>
       </c>
       <c r="I10" s="7">
-        <v>1120598</v>
+        <v>1116708</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>561</v>
@@ -7005,16 +6993,16 @@
         <v>562</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>563</v>
+        <v>238</v>
       </c>
       <c r="M10" s="7">
         <v>2453</v>
       </c>
       <c r="N10" s="7">
-        <v>2303176</v>
+        <v>2488192</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>196</v>
+        <v>563</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>564</v>
@@ -7032,7 +7020,7 @@
         <v>672</v>
       </c>
       <c r="D11" s="7">
-        <v>661600</v>
+        <v>621174</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>566</v>
@@ -7047,7 +7035,7 @@
         <v>985</v>
       </c>
       <c r="I11" s="7">
-        <v>695001</v>
+        <v>623632</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>569</v>
@@ -7062,16 +7050,16 @@
         <v>1657</v>
       </c>
       <c r="N11" s="7">
-        <v>1356601</v>
+        <v>1244806</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>572</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>573</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7083,46 +7071,46 @@
         <v>228</v>
       </c>
       <c r="D12" s="7">
-        <v>228489</v>
+        <v>215849</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>575</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>576</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>577</v>
       </c>
       <c r="H12" s="7">
         <v>313</v>
       </c>
       <c r="I12" s="7">
-        <v>218658</v>
+        <v>198007</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>578</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>579</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>580</v>
       </c>
       <c r="M12" s="7">
         <v>541</v>
       </c>
       <c r="N12" s="7">
-        <v>447147</v>
+        <v>413856</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>581</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>582</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7134,46 +7122,46 @@
         <v>69</v>
       </c>
       <c r="D13" s="7">
-        <v>63217</v>
+        <v>58618</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>584</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>585</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>586</v>
       </c>
       <c r="H13" s="7">
         <v>113</v>
       </c>
       <c r="I13" s="7">
-        <v>179725</v>
+        <v>267023</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>138</v>
+        <v>393</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="M13" s="7">
         <v>182</v>
       </c>
       <c r="N13" s="7">
-        <v>242942</v>
+        <v>325641</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>589</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>590</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7185,46 +7173,46 @@
         <v>29</v>
       </c>
       <c r="D14" s="7">
-        <v>25371</v>
+        <v>22467</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>594</v>
+        <v>191</v>
       </c>
       <c r="H14" s="7">
         <v>47</v>
       </c>
       <c r="I14" s="7">
-        <v>32360</v>
+        <v>29339</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>274</v>
+        <v>592</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>596</v>
+        <v>318</v>
       </c>
       <c r="M14" s="7">
         <v>76</v>
       </c>
       <c r="N14" s="7">
-        <v>57730</v>
+        <v>51806</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>597</v>
+        <v>432</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>598</v>
+        <v>100</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>594</v>
+        <v>310</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7236,7 +7224,7 @@
         <v>1991</v>
       </c>
       <c r="D15" s="7">
-        <v>2161254</v>
+        <v>2289592</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -7251,7 +7239,7 @@
         <v>2918</v>
       </c>
       <c r="I15" s="7">
-        <v>2246342</v>
+        <v>2234709</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -7266,7 +7254,7 @@
         <v>4909</v>
       </c>
       <c r="N15" s="7">
-        <v>4407596</v>
+        <v>4524301</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -7289,46 +7277,46 @@
         <v>402</v>
       </c>
       <c r="D16" s="7">
-        <v>411002</v>
+        <v>401804</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>151</v>
+        <v>595</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="H16" s="7">
         <v>657</v>
       </c>
       <c r="I16" s="7">
-        <v>487859</v>
+        <v>454727</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="M16" s="7">
         <v>1059</v>
       </c>
       <c r="N16" s="7">
-        <v>898862</v>
+        <v>856531</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7340,46 +7328,46 @@
         <v>206</v>
       </c>
       <c r="D17" s="7">
-        <v>193851</v>
+        <v>180694</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="H17" s="7">
         <v>264</v>
       </c>
       <c r="I17" s="7">
-        <v>166553</v>
+        <v>151223</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>611</v>
+        <v>217</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="M17" s="7">
         <v>470</v>
       </c>
       <c r="N17" s="7">
-        <v>360404</v>
+        <v>331917</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7391,46 +7379,46 @@
         <v>47</v>
       </c>
       <c r="D18" s="7">
-        <v>43450</v>
+        <v>40563</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>617</v>
+        <v>270</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="H18" s="7">
         <v>52</v>
       </c>
       <c r="I18" s="7">
-        <v>40691</v>
+        <v>37057</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>345</v>
+        <v>614</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="M18" s="7">
         <v>99</v>
       </c>
       <c r="N18" s="7">
-        <v>84141</v>
+        <v>77620</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7442,46 +7430,46 @@
         <v>20</v>
       </c>
       <c r="D19" s="7">
-        <v>19837</v>
+        <v>19095</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>262</v>
+        <v>619</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="H19" s="7">
         <v>24</v>
       </c>
       <c r="I19" s="7">
-        <v>14699</v>
+        <v>13614</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>55</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>597</v>
+        <v>622</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>626</v>
+        <v>269</v>
       </c>
       <c r="M19" s="7">
         <v>44</v>
       </c>
       <c r="N19" s="7">
-        <v>34536</v>
+        <v>32709</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>627</v>
+        <v>57</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>629</v>
+        <v>508</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7493,46 +7481,46 @@
         <v>5</v>
       </c>
       <c r="D20" s="7">
-        <v>4143</v>
+        <v>3784</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>630</v>
+        <v>185</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>473</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>191</v>
+        <v>624</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
       </c>
       <c r="I20" s="7">
-        <v>4083</v>
+        <v>3842</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>513</v>
+        <v>627</v>
       </c>
       <c r="M20" s="7">
         <v>12</v>
       </c>
       <c r="N20" s="7">
-        <v>8226</v>
+        <v>7625</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>185</v>
+        <v>625</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>273</v>
+        <v>629</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7544,7 +7532,7 @@
         <v>680</v>
       </c>
       <c r="D21" s="7">
-        <v>672283</v>
+        <v>645940</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>60</v>
@@ -7559,7 +7547,7 @@
         <v>1004</v>
       </c>
       <c r="I21" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -7574,7 +7562,7 @@
         <v>1684</v>
       </c>
       <c r="N21" s="7">
-        <v>1386170</v>
+        <v>1306403</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -7597,46 +7585,46 @@
         <v>1689</v>
       </c>
       <c r="D22" s="7">
-        <v>1829252</v>
+        <v>2003352</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="H22" s="7">
         <v>2677</v>
       </c>
       <c r="I22" s="7">
-        <v>1937808</v>
+        <v>1876790</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>563</v>
+        <v>149</v>
       </c>
       <c r="M22" s="7">
         <v>4366</v>
       </c>
       <c r="N22" s="7">
-        <v>3767059</v>
+        <v>3880142</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7648,46 +7636,46 @@
         <v>1057</v>
       </c>
       <c r="D23" s="7">
-        <v>998361</v>
+        <v>936899</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="H23" s="7">
         <v>1627</v>
       </c>
       <c r="I23" s="7">
-        <v>1096822</v>
+        <v>981408</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="M23" s="7">
         <v>2684</v>
       </c>
       <c r="N23" s="7">
-        <v>2095183</v>
+        <v>1918307</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7699,46 +7687,46 @@
         <v>396</v>
       </c>
       <c r="D24" s="7">
-        <v>362817</v>
+        <v>340705</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="H24" s="7">
         <v>645</v>
       </c>
       <c r="I24" s="7">
-        <v>411562</v>
+        <v>373059</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>335</v>
+        <v>649</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="M24" s="7">
         <v>1041</v>
       </c>
       <c r="N24" s="7">
-        <v>774379</v>
+        <v>713764</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>656</v>
+        <v>391</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7750,46 +7738,46 @@
         <v>155</v>
       </c>
       <c r="D25" s="7">
-        <v>130325</v>
+        <v>120306</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>222</v>
+        <v>614</v>
       </c>
       <c r="H25" s="7">
         <v>270</v>
       </c>
       <c r="I25" s="7">
-        <v>268856</v>
+        <v>346755</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>661</v>
+        <v>268</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="M25" s="7">
         <v>425</v>
       </c>
       <c r="N25" s="7">
-        <v>399181</v>
+        <v>467061</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7801,46 +7789,46 @@
         <v>59</v>
       </c>
       <c r="D26" s="7">
-        <v>49247</v>
+        <v>44472</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>666</v>
+        <v>306</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>318</v>
+        <v>662</v>
       </c>
       <c r="H26" s="7">
         <v>122</v>
       </c>
       <c r="I26" s="7">
-        <v>75522</v>
+        <v>67702</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>51</v>
+        <v>475</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="M26" s="7">
         <v>181</v>
       </c>
       <c r="N26" s="7">
-        <v>124769</v>
+        <v>112174</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>596</v>
+        <v>666</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7852,7 +7840,7 @@
         <v>3356</v>
       </c>
       <c r="D27" s="7">
-        <v>3370002</v>
+        <v>3445735</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -7867,7 +7855,7 @@
         <v>5341</v>
       </c>
       <c r="I27" s="7">
-        <v>3790569</v>
+        <v>3645713</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -7882,7 +7870,7 @@
         <v>8697</v>
       </c>
       <c r="N27" s="7">
-        <v>7160571</v>
+        <v>7091448</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
